--- a/ITMO/stud1.xlsx
+++ b/ITMO/stud1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A039B0-CED9-48E3-B5C2-EB28EB13EA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECE931D-745B-41F7-83EE-3464C74D36DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="1908" windowWidth="12540" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="452">
   <si>
     <t>Step</t>
   </si>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,13 +1745,13 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>8800</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>396.09</v>
-      </c>
-      <c r="D2">
-        <v>45854</v>
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1762,13 +1762,13 @@
         <v>150</v>
       </c>
       <c r="B3">
-        <v>9050</v>
+        <v>8800</v>
       </c>
       <c r="C3">
-        <v>401.09</v>
+        <v>396.09</v>
       </c>
       <c r="D3">
-        <v>47628</v>
+        <v>45854</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1782,13 +1782,13 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>10500</v>
+        <v>9050</v>
       </c>
       <c r="C4">
-        <v>435.58</v>
+        <v>401.09</v>
       </c>
       <c r="D4">
-        <v>23304</v>
+        <v>47628</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -1805,13 +1805,13 @@
         <v>250</v>
       </c>
       <c r="B5">
-        <v>11700</v>
+        <v>10500</v>
       </c>
       <c r="C5">
-        <v>461.45</v>
+        <v>435.58</v>
       </c>
       <c r="D5">
-        <v>14530</v>
+        <v>23304</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -1822,13 +1822,13 @@
         <v>300</v>
       </c>
       <c r="B6">
-        <v>13000</v>
+        <v>11700</v>
       </c>
       <c r="C6">
-        <v>489.05</v>
+        <v>461.45</v>
       </c>
       <c r="D6">
-        <v>25225</v>
+        <v>14530</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1839,13 +1839,13 @@
         <v>350</v>
       </c>
       <c r="B7">
-        <v>14600</v>
+        <v>13000</v>
       </c>
       <c r="C7">
-        <v>525.01</v>
+        <v>489.05</v>
       </c>
       <c r="D7">
-        <v>60888</v>
+        <v>25225</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1856,13 +1856,13 @@
         <v>400</v>
       </c>
       <c r="B8">
-        <v>15700</v>
+        <v>14600</v>
       </c>
       <c r="C8">
-        <v>550.75</v>
+        <v>525.01</v>
       </c>
       <c r="D8">
-        <v>40043</v>
+        <v>60888</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1873,13 +1873,13 @@
         <v>450</v>
       </c>
       <c r="B9">
-        <v>16350</v>
+        <v>15700</v>
       </c>
       <c r="C9">
-        <v>564.33000000000004</v>
+        <v>550.75</v>
       </c>
       <c r="D9">
-        <v>26418</v>
+        <v>40043</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1890,13 +1890,13 @@
         <v>500</v>
       </c>
       <c r="B10">
-        <v>17400</v>
+        <v>16350</v>
       </c>
       <c r="C10">
-        <v>588.66</v>
+        <v>564.33000000000004</v>
       </c>
       <c r="D10">
-        <v>15135</v>
+        <v>26418</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1907,13 +1907,13 @@
         <v>550</v>
       </c>
       <c r="B11">
-        <v>18950</v>
+        <v>17400</v>
       </c>
       <c r="C11">
-        <v>621.16999999999996</v>
+        <v>588.66</v>
       </c>
       <c r="D11">
-        <v>13632</v>
+        <v>15135</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1923,6 +1923,15 @@
       <c r="A12">
         <v>600</v>
       </c>
+      <c r="B12">
+        <v>18950</v>
+      </c>
+      <c r="C12">
+        <v>621.16999999999996</v>
+      </c>
+      <c r="D12">
+        <v>13632</v>
+      </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1930,6 +1939,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>650</v>
+      </c>
+      <c r="B13">
+        <v>25500</v>
+      </c>
+      <c r="C13">
+        <v>900</v>
+      </c>
+      <c r="D13" t="s">
+        <v>444</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
